--- a/xlsx/RAH-66_intext.xlsx
+++ b/xlsx/RAH-66_intext.xlsx
@@ -29,19 +29,19 @@
     <t>攻击直升机</t>
   </si>
   <si>
-    <t>政策_政策_藍圖_RAH-66</t>
+    <t>政策_政策_蓝图_RAH-66</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%80%83%E6%96%AF%E5%9F%BA%E9%A3%9B%E8%A1%8C%E5%99%A8</t>
   </si>
   <si>
-    <t>塞考斯基飛行器</t>
+    <t>塞考斯基飞行器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍</t>
+    <t>美国陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>直升機</t>
+    <t>直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%8F%AF%E5%81%B5%E6%B8%AC%E6%80%A7</t>
   </si>
   <si>
-    <t>低可偵測性</t>
+    <t>低可侦测性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AH-64</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>越戰</t>
+    <t>越战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E5%90%88%E6%9D%90%E6%96%99</t>
   </si>
   <si>
-    <t>複合材料</t>
+    <t>复合材料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-117</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E4%BA%BA%E6%A9%9F</t>
   </si>
   <si>
-    <t>無人機</t>
+    <t>无人机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>阿富汗戰爭</t>
+    <t>阿富汗战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fort_Rucker</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E8%BB%B8%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>渦輪軸發動機</t>
+    <t>涡轮轴发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E8%88%AA%E9%80%9F%E5%BA%A6</t>
@@ -167,25 +167,25 @@
     <t>https://zh.wikipedia.org/wiki/XM301%E5%8A%A0%E7%89%B9%E6%9E%97%E6%A9%9F%E7%82%AE</t>
   </si>
   <si>
-    <t>XM301加特林機炮</t>
+    <t>XM301加特林机炮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AGM-114%E5%9C%B0%E7%8D%84%E7%81%AB%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>AGM-114地獄火飛彈</t>
+    <t>AGM-114地狱火飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FIM-92%E5%88%BA%E9%87%9D%E4%BE%BF%E6%94%9C%E5%BC%8F%E9%98%B2%E7%A9%BA%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>FIM-92刺針便攜式防空飛彈</t>
+    <t>FIM-92刺针便携式防空飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%9B%8770%E8%88%AA%E7%A9%BA%E7%81%AB%E7%AE%AD%E5%BD%88</t>
   </si>
   <si>
-    <t>火蛇70航空火箭彈</t>
+    <t>火蛇70航空火箭弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E7%B2%BE%E8%8B%B1Online</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/SH-3%E6%B5%B7%E7%8E%8B%E7%9B%B4%E6%98%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>SH-3海王直昇機</t>
+    <t>SH-3海王直昇机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%A7%91%E6%96%AF%E5%9F%BA_S-61</t>
@@ -251,49 +251,49 @@
     <t>https://zh.wikipedia.org/wiki/CH-53%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>CH-53直升機</t>
+    <t>CH-53直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E8%80%83%E6%96%AF%E5%9F%BAS-70%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>賽考斯基S-70直升機</t>
+    <t>赛考斯基S-70直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E8%80%83%E6%96%AF%E5%9F%BAS-76%E7%B2%BE%E9%9D%88%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>賽考斯基S-76精靈直升機</t>
+    <t>赛考斯基S-76精灵直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CH-53E%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>CH-53E直升機</t>
+    <t>CH-53E直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E8%80%83%E6%96%AF%E5%9F%BAS-97%E8%A5%B2%E6%93%8A%E8%80%85%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>賽考斯基S-97襲擊者直升機</t>
+    <t>赛考斯基S-97袭击者直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CH-53K%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>CH-53K直升機</t>
+    <t>CH-53K直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SH-60%E6%B5%B7%E9%B7%B9%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>SH-60海鷹直升機</t>
+    <t>SH-60海鹰直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UH-60%E9%BB%91%E9%B7%B9%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>UH-60黑鷹直升機</t>
+    <t>UH-60黑鹰直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Boeing_combat_aircraft</t>
@@ -305,37 +305,37 @@
     <t>https://zh.wikipedia.org/wiki/P-26%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-26戰鬥機</t>
+    <t>P-26战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15%E9%B7%B9%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-15鷹式戰鬥機</t>
+    <t>F-15鹰式战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F/A-18%E9%BB%83%E8%9C%82%E5%BC%8F%E6%88%B0%E9%AC%A5%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>F/A-18黃蜂式戰鬥攻擊機</t>
+    <t>F/A-18黄蜂式战斗攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-22%E7%8C%9B%E7%A6%BD%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-22猛禽戰鬥機</t>
+    <t>F-22猛禽战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AV-8%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>AV-8攻擊機</t>
+    <t>AV-8攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15E%E6%89%93%E6%93%8A%E9%B7%B9%E5%BC%8F%E6%88%B0%E9%AC%A5%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>F-15E打擊鷹式戰鬥轟炸機</t>
+    <t>F-15E打击鹰式战斗轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-15SE%E6%B2%89%E9%BB%98%E9%B9%B0%E5%BC%8F%E6%88%98%E6%96%97%E6%9C%BA</t>
@@ -347,19 +347,19 @@
     <t>https://zh.wikipedia.org/wiki/B-17%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-17轟炸機</t>
+    <t>B-17轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-29%E8%B6%85%E7%B4%9A%E5%A0%A1%E5%A3%98%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-29超級堡壘轟炸機</t>
+    <t>B-29超级堡垒轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-47%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-47轟炸機</t>
+    <t>B-47轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-50%E8%B6%85%E7%BA%A7%E5%A0%A1%E5%9E%92%E8%BD%B0%E7%82%B8%E6%9C%BA</t>
@@ -371,25 +371,25 @@
     <t>https://zh.wikipedia.org/wiki/B-52%E5%90%8C%E6%BA%AB%E5%B1%A4%E5%A0%A1%E5%A3%98%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-52同溫層堡壘轟炸機</t>
+    <t>B-52同温层堡垒轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-1%E6%A7%8D%E9%A8%8E%E5%85%B5%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-1槍騎兵戰略轟炸機</t>
+    <t>B-1枪骑兵战略轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CH-47%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>CH-47直升機</t>
+    <t>CH-47直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%95%E5%A5%91AH_MK1%E7%9B%B4%E6%98%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>阿帕契AH MK1直昇機</t>
+    <t>阿帕契AH MK1直昇机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3247</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3307%E5%B9%B3%E6%B5%81%E5%B1%A4%E5%AE%A2%E6%A9%9F</t>
   </si>
   <si>
-    <t>波音307平流層客機</t>
+    <t>波音307平流层客机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boeing_C-97_Stratofreighter</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/KC-46%E7%A9%BA%E4%B8%AD%E5%8A%A0%E6%B2%B9%E6%A9%9F</t>
   </si>
   <si>
-    <t>KC-46空中加油機</t>
+    <t>KC-46空中加油机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/KC-767%E7%A9%BA%E4%B8%AD%E5%8A%A0%E6%B2%B9%E6%9C%BA</t>
@@ -479,19 +479,19 @@
     <t>https://zh.wikipedia.org/wiki/T-45%E8%92%BC%E9%B7%B9%E6%95%99%E7%B7%B4%E6%A9%9F</t>
   </si>
   <si>
-    <t>T-45蒼鷹教練機</t>
+    <t>T-45苍鹰教练机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-8%E6%B3%A2%E8%B3%BD%E9%A0%93%E6%B5%B7%E4%B8%8A%E5%B7%A1%E9%82%8F%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-8波賽頓海上巡邏機</t>
+    <t>P-8波赛顿海上巡逻机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E-3%E7%A9%BA%E4%B8%AD%E9%A0%90%E8%AD%A6%E6%A9%9F</t>
   </si>
   <si>
-    <t>E-3空中預警機</t>
+    <t>E-3空中预警机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/E-6%E9%80%9A%E4%BF%A1%E4%B8%AD%E7%BB%A7%E6%9C%BA</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/E-737%E7%A9%BA%E4%B8%AD%E9%A0%90%E8%AD%A6%E6%A9%9F</t>
   </si>
   <si>
-    <t>E-737空中預警機</t>
+    <t>E-737空中预警机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boeing_NC-135</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/X-20%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-20試驗機</t>
+    <t>X-20试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3X-37</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/YAL-1%E6%A9%9F%E8%BC%89%E9%9B%B7%E5%B0%84%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>YAL-1機載雷射系統</t>
+    <t>YAL-1机载雷射系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boeing_Bird_of_Prey</t>
